--- a/Asistencia.xlsx
+++ b/Asistencia.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\EGCC\JAVA-OO-2020-4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\JAVA\JAVAOO\JAVA-OO-2020-5\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,7 +15,7 @@
     <sheet name="ASISTENCIA" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">ASISTENCIA!$A$1:$F$27</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">ASISTENCIA!$A$1:$F$26</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
   <si>
     <t>NRO</t>
   </si>
@@ -56,76 +56,58 @@
     <t>Control de Asistencia</t>
   </si>
   <si>
-    <t>ARCE CHAMORRO JONATAN JAVIER</t>
-  </si>
-  <si>
-    <t>BARRIOS ALARCON FERNANDO LUIS</t>
-  </si>
-  <si>
-    <t>CABRERA ROJAS ALEX ANGEL</t>
-  </si>
-  <si>
-    <t>CRISTOBAL ARTICA LUIS ENRIQUE</t>
-  </si>
-  <si>
-    <t>FLORES BERROCAL ANTHONY ALDAIR</t>
-  </si>
-  <si>
-    <t>HINOSTROZA YAÑEZ EVANS DEL JAIR</t>
-  </si>
-  <si>
-    <t>MESARES HUAMAN ANGELICA</t>
-  </si>
-  <si>
-    <t>PASACA ROJAS ORLANDO</t>
-  </si>
-  <si>
-    <t>PEREZ AGUISE GIANFRANCO</t>
-  </si>
-  <si>
-    <t>PILCO QUEVEDO JOSE LEWIS</t>
-  </si>
-  <si>
-    <t>RIVERA CAMPOS JUAN JHOSMAR</t>
-  </si>
-  <si>
-    <t>RIVEROS TINTAYA MARCOS VIDAL</t>
-  </si>
-  <si>
-    <t>ROJAS ASPARRIN ANTHONY</t>
-  </si>
-  <si>
-    <t>TERRONES BOHORQUEZ JOSE ABEL</t>
-  </si>
-  <si>
-    <t>TORRES MAÑUECO ALEXANDER ALAVARO</t>
-  </si>
-  <si>
-    <t>VASQUEZ RODRIGUEZ ANDREA</t>
-  </si>
-  <si>
-    <t>05.FEB.2020</t>
-  </si>
-  <si>
-    <t>07.FEB.2020</t>
-  </si>
-  <si>
-    <t>[M9-JAVPR] JAVA - PROGRAMACIÓN</t>
-  </si>
-  <si>
-    <t>LU, MI y VI: 8-14 H</t>
-  </si>
-  <si>
-    <t>17.FEB.2020</t>
-  </si>
-  <si>
     <t>19.FEB.2020</t>
   </si>
   <si>
-    <t>P</t>
-  </si>
-  <si>
-    <t>F</t>
+    <t>[S4-JAVPR] JAVA - PROGRAMACIÓN</t>
+  </si>
+  <si>
+    <t>15.FEB.2020</t>
+  </si>
+  <si>
+    <t>SAB 08-14 Horas</t>
+  </si>
+  <si>
+    <t>22.FEB.2020</t>
+  </si>
+  <si>
+    <t>29.FEB.2020</t>
+  </si>
+  <si>
+    <t>07.MAR.2020</t>
+  </si>
+  <si>
+    <t>ASTO RUPAY JOAQUIN RODRIGO</t>
+  </si>
+  <si>
+    <t>CARDOSO ALVITES PEDRO JOEL</t>
+  </si>
+  <si>
+    <t>CARDOZO ALVITES PEDRO</t>
+  </si>
+  <si>
+    <t>CASTILLO RUIZ JULIO CESAR</t>
+  </si>
+  <si>
+    <t>CHAVEZ REBATTA JOSE ALEJANDRO</t>
+  </si>
+  <si>
+    <t>FELICES SANABRIA LISBETH</t>
+  </si>
+  <si>
+    <t>HEREDIA IDROGO GEINER ALEX</t>
+  </si>
+  <si>
+    <t>LOSTAUNAU YAYA AILTON ALEJANDRO</t>
+  </si>
+  <si>
+    <t>MELENDEZ MALCA MAYRA LORENA</t>
+  </si>
+  <si>
+    <t>MURRIETA MEZA DALE ALEJANDRO</t>
+  </si>
+  <si>
+    <t>RUIZ RUBIO MICHAEL MELANIO</t>
   </si>
 </sst>
 </file>
@@ -169,14 +151,6 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="2" tint="-0.749992370372631"/>
       <name val="Calibri"/>
@@ -192,18 +166,26 @@
     </font>
     <font>
       <b/>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1" tint="0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1" tint="0.249977111117893"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -283,34 +265,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="7" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -653,369 +635,294 @@
   <sheetPr codeName="Hoja1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="39.28515625" customWidth="1"/>
-    <col min="3" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="8.28515625" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="39.33203125" customWidth="1"/>
+    <col min="3" max="6" width="15.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="8.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="93" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:6" ht="7.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A3" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-    </row>
-    <row r="4" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A4" s="19" t="s">
+    <row r="1" spans="1:6" ht="91.2" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:6" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="A2" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+    </row>
+    <row r="3" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A3" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="19"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="16"/>
+      <c r="C5" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="17" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B6" s="17"/>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="11">
+        <v>202002</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C7" s="4"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="7"/>
+    </row>
+    <row r="8" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
+        <v>1</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+    </row>
+    <row r="10" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="3">
         <v>2</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="B10" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+    </row>
+    <row r="11" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="2">
         <v>3</v>
       </c>
-      <c r="E6" s="10" t="s">
+      <c r="B11" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+    </row>
+    <row r="12" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="2">
         <v>4</v>
       </c>
-      <c r="F6" s="10" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="18"/>
-      <c r="C7" s="11">
-        <v>202002</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="F7" s="13" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C8" s="4"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="7"/>
-    </row>
-    <row r="9" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="E9" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="F9" s="14" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
-        <v>1</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-    </row>
-    <row r="11" spans="1:6" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
-        <v>2</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-    </row>
-    <row r="12" spans="1:6" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
-        <v>3</v>
-      </c>
       <c r="B12" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>31</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
     </row>
-    <row r="13" spans="1:6" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
-        <v>4</v>
+    <row r="13" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="3">
+        <v>5</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>31</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="1:6" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="3">
-        <v>5</v>
+    <row r="14" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="2">
+        <v>6</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>31</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="1:6" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
-        <v>6</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-    </row>
-    <row r="16" spans="1:6" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
         <v>7</v>
       </c>
+      <c r="B15" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+    </row>
+    <row r="16" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="3">
+        <v>8</v>
+      </c>
       <c r="B16" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>31</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
     </row>
-    <row r="17" spans="1:6" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="3">
-        <v>8</v>
-      </c>
-      <c r="B17" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-    </row>
-    <row r="18" spans="1:6" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="2">
+        <v>9</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+    </row>
+    <row r="18" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>31</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
     </row>
-    <row r="19" spans="1:6" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="2">
-        <v>10</v>
+    <row r="19" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="3">
+        <v>11</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>31</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
     </row>
-    <row r="20" spans="1:6" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="3">
-        <v>11</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>31</v>
-      </c>
+    <row r="20" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="2">
+        <v>12</v>
+      </c>
+      <c r="B20" s="8"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
     </row>
-    <row r="21" spans="1:6" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
-        <v>12</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>31</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="B21" s="8"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
     </row>
-    <row r="22" spans="1:6" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="2">
-        <v>13</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>31</v>
-      </c>
+    <row r="22" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="3">
+        <v>14</v>
+      </c>
+      <c r="B22" s="8"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
     </row>
-    <row r="23" spans="1:6" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="3">
-        <v>14</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>31</v>
-      </c>
+    <row r="23" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="2">
+        <v>15</v>
+      </c>
+      <c r="B23" s="8"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
     </row>
-    <row r="24" spans="1:6" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
-        <v>15</v>
-      </c>
-      <c r="B24" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>31</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="B24" s="8"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
     </row>
-    <row r="25" spans="1:6" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="2">
-        <v>16</v>
-      </c>
-      <c r="B25" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-    </row>
   </sheetData>
   <mergeCells count="4">
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
     <mergeCell ref="A3:F3"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A4:F4"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="99" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="88" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Asistencia.xlsx
+++ b/Asistencia.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20354"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\JAVA\JAVAOO\JAVA-OO-2020-5\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\EGCC\JAVA-OO-2020-5\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86242891-25FD-4F6B-886B-9C22F001D180}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ASISTENCIA" sheetId="1" r:id="rId1"/>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="28">
   <si>
     <t>NRO</t>
   </si>
@@ -108,12 +109,15 @@
   </si>
   <si>
     <t>RUIZ RUBIO MICHAEL MELANIO</t>
+  </si>
+  <si>
+    <t>P</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -283,13 +287,13 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -631,36 +635,36 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Hoja1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:F2"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="39.33203125" customWidth="1"/>
-    <col min="3" max="6" width="15.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="8.33203125" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="39.28515625" customWidth="1"/>
+    <col min="3" max="6" width="15.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="8.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="91.2" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:6" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A2" s="18" t="s">
+    <row r="1" spans="1:6" ht="91.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A2" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-    </row>
-    <row r="3" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+    </row>
+    <row r="3" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
         <v>8</v>
       </c>
@@ -670,11 +674,11 @@
       <c r="E3" s="19"/>
       <c r="F3" s="19"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="16" t="s">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="16"/>
+      <c r="B5" s="17"/>
       <c r="C5" s="10" t="s">
         <v>2</v>
       </c>
@@ -688,11 +692,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="17" t="s">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="17"/>
+      <c r="B6" s="18"/>
       <c r="C6" s="11">
         <v>202002</v>
       </c>
@@ -706,13 +710,13 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" s="4"/>
       <c r="D7" s="5"/>
       <c r="E7" s="6"/>
       <c r="F7" s="7"/>
     </row>
-    <row r="8" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
         <v>0</v>
       </c>
@@ -732,139 +736,161 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>1</v>
       </c>
       <c r="B9" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="2"/>
+      <c r="C9" s="2" t="s">
+        <v>27</v>
+      </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>2</v>
       </c>
       <c r="B10" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="3"/>
+      <c r="C10" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
     </row>
-    <row r="11" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>3</v>
       </c>
       <c r="B11" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="2"/>
+      <c r="C11" s="2" t="s">
+        <v>27</v>
+      </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
     </row>
-    <row r="12" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>4</v>
       </c>
       <c r="B12" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="2"/>
+      <c r="C12" s="2" t="s">
+        <v>27</v>
+      </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
     </row>
-    <row r="13" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>5</v>
       </c>
       <c r="B13" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="2"/>
+      <c r="C13" s="2" t="s">
+        <v>27</v>
+      </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>6</v>
       </c>
       <c r="B14" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="2"/>
+      <c r="C14" s="2" t="s">
+        <v>27</v>
+      </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>7</v>
       </c>
       <c r="B15" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="3"/>
+      <c r="C15" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
     </row>
-    <row r="16" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>8</v>
       </c>
       <c r="B16" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C16" s="3"/>
+      <c r="C16" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
     </row>
-    <row r="17" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>9</v>
       </c>
       <c r="B17" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C17" s="2"/>
+      <c r="C17" s="2" t="s">
+        <v>27</v>
+      </c>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
     </row>
-    <row r="18" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>10</v>
       </c>
       <c r="B18" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="2"/>
+      <c r="C18" s="2" t="s">
+        <v>27</v>
+      </c>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
     </row>
-    <row r="19" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>11</v>
       </c>
       <c r="B19" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C19" s="2"/>
+      <c r="C19" s="2" t="s">
+        <v>27</v>
+      </c>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
     </row>
-    <row r="20" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>12</v>
       </c>
@@ -874,7 +900,7 @@
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
     </row>
-    <row r="21" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>13</v>
       </c>
@@ -884,7 +910,7 @@
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
     </row>
-    <row r="22" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>14</v>
       </c>
@@ -894,7 +920,7 @@
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
     </row>
-    <row r="23" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>15</v>
       </c>
@@ -904,7 +930,7 @@
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
     </row>
-    <row r="24" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>16</v>
       </c>

--- a/Asistencia.xlsx
+++ b/Asistencia.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20354"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20356"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\EGCC\JAVA-OO-2020-5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86242891-25FD-4F6B-886B-9C22F001D180}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8F5A2D3-35B0-4CE7-9820-370DF51A1715}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="28">
   <si>
     <t>NRO</t>
   </si>
@@ -84,9 +84,6 @@
     <t>CARDOSO ALVITES PEDRO JOEL</t>
   </si>
   <si>
-    <t>CARDOZO ALVITES PEDRO</t>
-  </si>
-  <si>
     <t>CASTILLO RUIZ JULIO CESAR</t>
   </si>
   <si>
@@ -112,6 +109,9 @@
   </si>
   <si>
     <t>P</t>
+  </si>
+  <si>
+    <t>MONTALVAN ORELLANO RICARDO</t>
   </si>
 </sst>
 </file>
@@ -641,8 +641,8 @@
   </sheetPr>
   <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -744,10 +744,14 @@
         <v>16</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
+        <v>26</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="F9" s="2"/>
     </row>
     <row r="10" spans="1:6" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
@@ -758,9 +762,11 @@
         <v>17</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" s="3"/>
+        <v>26</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>26</v>
+      </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
     </row>
@@ -772,53 +778,69 @@
         <v>18</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
+        <v>26</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="F11" s="2"/>
     </row>
     <row r="12" spans="1:6" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
+      <c r="A12" s="3">
         <v>4</v>
       </c>
       <c r="B12" s="8" t="s">
         <v>19</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
+        <v>26</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="F12" s="2"/>
     </row>
     <row r="13" spans="1:6" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="3">
+      <c r="A13" s="2">
         <v>5</v>
       </c>
       <c r="B13" s="8" t="s">
         <v>20</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
+        <v>26</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="F13" s="2"/>
     </row>
     <row r="14" spans="1:6" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
+      <c r="A14" s="3">
         <v>6</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
+      <c r="C14" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F14" s="3"/>
     </row>
     <row r="15" spans="1:6" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
@@ -828,66 +850,86 @@
         <v>22</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
+        <v>26</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>26</v>
+      </c>
       <c r="F15" s="3"/>
     </row>
     <row r="16" spans="1:6" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>8</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
+      <c r="C16" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F16" s="2"/>
     </row>
     <row r="17" spans="1:6" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>9</v>
       </c>
       <c r="B17" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F17" s="2"/>
+    </row>
+    <row r="18" spans="1:6" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
+        <v>10</v>
+      </c>
+      <c r="B18" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-    </row>
-    <row r="18" spans="1:6" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="2">
-        <v>10</v>
-      </c>
-      <c r="B18" s="8" t="s">
+      <c r="C18" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F18" s="2"/>
+    </row>
+    <row r="19" spans="1:6" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <v>11</v>
+      </c>
+      <c r="B19" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-    </row>
-    <row r="19" spans="1:6" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="3">
-        <v>11</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>26</v>
-      </c>
       <c r="C19" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
+        <v>26</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="F19" s="2"/>
     </row>
     <row r="20" spans="1:6" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">

--- a/Asistencia.xlsx
+++ b/Asistencia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\EGCC\JAVA-OO-2020-5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8F5A2D3-35B0-4CE7-9820-370DF51A1715}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1C84CB3-77A5-4844-9FB2-A248962848E9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="28">
   <si>
     <t>NRO</t>
   </si>
@@ -641,8 +641,8 @@
   </sheetPr>
   <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -752,7 +752,9 @@
       <c r="E9" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F9" s="2"/>
+      <c r="F9" s="2" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="10" spans="1:6" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
@@ -786,7 +788,9 @@
       <c r="E11" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F11" s="2"/>
+      <c r="F11" s="2" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="12" spans="1:6" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
@@ -804,7 +808,9 @@
       <c r="E12" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F12" s="2"/>
+      <c r="F12" s="2" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="13" spans="1:6" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
@@ -822,7 +828,9 @@
       <c r="E13" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F13" s="2"/>
+      <c r="F13" s="2" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="14" spans="1:6" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
@@ -840,7 +848,9 @@
       <c r="E14" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="F14" s="3"/>
+      <c r="F14" s="3" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="15" spans="1:6" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
@@ -876,7 +886,9 @@
       <c r="E16" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F16" s="2"/>
+      <c r="F16" s="2" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="17" spans="1:6" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
@@ -894,7 +906,9 @@
       <c r="E17" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F17" s="2"/>
+      <c r="F17" s="2" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="18" spans="1:6" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
@@ -912,7 +926,9 @@
       <c r="E18" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F18" s="2"/>
+      <c r="F18" s="2" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="19" spans="1:6" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
@@ -930,7 +946,9 @@
       <c r="E19" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F19" s="2"/>
+      <c r="F19" s="2" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="20" spans="1:6" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
